--- a/biology/Microbiologie/Acidithiobacillus_ferrivorans/Acidithiobacillus_ferrivorans.xlsx
+++ b/biology/Microbiologie/Acidithiobacillus_ferrivorans/Acidithiobacillus_ferrivorans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidithiobacillus ferrivorans est une espèce de bactérie à Gram négatif du genre Acidithiobacillus de la famille Acidithiobacillaceae et incluse dans les Pseudomonadota. C'est une bactérie anaérobie facultative capable d'oxyder le fer.
 </t>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres[2]. L'étymologie de l'espèce Acidithiobacillus ferrivorans est la suivante : fer.ri.vo.rans L. neut. n. ferrum, fer; L. pres. part. vorans, dévorant; N.L. part. adj. ferrivorans, qui dévore le fer[1],[3].
-Historique
-Cette espèce décrite en 2010 a permis de classer le groupe NO-37 de quatre souches de bactéries du genre Acidithiobacillus isolées d'environnements miniers. Ce sont des bactéries  chimiolithotrophes obligatoires, anaérobies facultatives et moins tolérant aux pH très acides[1].
-Comme les autres bactéries du même genre, elle fait partie de la classe des Acidithiobacillia créée en 2013[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres. L'étymologie de l'espèce Acidithiobacillus ferrivorans est la suivante : fer.ri.vo.rans L. neut. n. ferrum, fer; L. pres. part. vorans, dévorant; N.L. part. adj. ferrivorans, qui dévore le fer,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acidithiobacillus_ferrivorans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillus_ferrivorans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce décrite en 2010 a permis de classer le groupe NO-37 de quatre souches de bactéries du genre Acidithiobacillus isolées d'environnements miniers. Ce sont des bactéries  chimiolithotrophes obligatoires, anaérobies facultatives et moins tolérant aux pH très acides.
+Comme les autres bactéries du même genre, elle fait partie de la classe des Acidithiobacillia créée en 2013.
 </t>
         </is>
       </c>
